--- a/Docs/βまでの追加仕様書.xlsx
+++ b/Docs/βまでの追加仕様書.xlsx
@@ -53,40 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スキル発動と同時にクールタイムを減らしていく
-まずはスキルの効果が30秒、クールタイムが1分で設定。これはpublic変数でそれぞれ指定できるようにする。
-また、スキルは同時に2つ以上共存できない。
-別のスキルを使用した場合、前使っていたスキルの効果を消して新しく使用したスキルの効果を適用させる</t>
-    <rPh sb="3" eb="5">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仮想パッド</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
@@ -444,6 +410,90 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル発動と同時にクールタイムを減らしていく
+まずはスキルの効果が30秒、クールタイムが1分で設定。これはpublic変数でそれぞれ指定できるようにする。
+また、スキルは同時に2つ以上共存できない。
+別のスキルを使用した場合、前使っていたスキルの効果を消して新しく使用したスキルの効果を適用させる
+パッシブスキルとアクティブスキルがある。
+攻撃力UP等の単純なものに関してはアクティブスキル版は効果が高く(速度2倍等)、パッシブスキル版が効果が低い(速度1.3倍等)</t>
+    <rPh sb="3" eb="5">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ナド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -828,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,61 +896,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="81" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>